--- a/data/trans_bre/P12_1_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P12_1_R-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>4.329743741028347</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9.362673525708315</v>
+        <v>9.362673525708317</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06378374905628298</v>
@@ -649,7 +649,7 @@
         <v>0.2471972836659509</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5109310205170785</v>
+        <v>0.5109310205170787</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.209677495510071</v>
+        <v>-3.141415007031124</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.727379535726019</v>
+        <v>6.761202778262943</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.265374089498496</v>
+        <v>1.212017678392246</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.656282847689329</v>
+        <v>4.494749171273722</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1172774236188024</v>
+        <v>-0.1138226497583479</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3326642496200934</v>
+        <v>0.3386296052058155</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06784093431150444</v>
+        <v>0.06038426650149531</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2228686066337124</v>
+        <v>0.2140481455718132</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.17034862053139</v>
+        <v>6.268229669825732</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.32737663399464</v>
+        <v>13.93885486403477</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.430336546360691</v>
+        <v>7.914123180840781</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.74771988697356</v>
+        <v>14.09712136496349</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2796408639276551</v>
+        <v>0.2842916214795598</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.866141275077555</v>
+        <v>0.8520702050562977</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4631257168647587</v>
+        <v>0.4817710030030186</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.8767741052897911</v>
+        <v>0.8890051399006426</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>3.177061675507824</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4.728463884735266</v>
+        <v>4.728463884735268</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3273967950204718</v>
@@ -749,7 +749,7 @@
         <v>0.3011179524479438</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.4452980849220542</v>
+        <v>0.4452980849220544</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.149863883381154</v>
+        <v>2.219994766955374</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.692542625821799</v>
+        <v>5.497989055277021</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.245623015597973</v>
+        <v>0.313443680413971</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.989520244724778</v>
+        <v>1.767966963230463</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1186568407258486</v>
+        <v>0.1207316358906364</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2941275484853683</v>
+        <v>0.2708559834556026</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01972037568869685</v>
+        <v>0.02671045910449121</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1693341711883354</v>
+        <v>0.132181498829192</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.906439305990492</v>
+        <v>8.970151021187981</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.93645523129311</v>
+        <v>12.76793108526092</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.177276130580094</v>
+        <v>5.989384976552302</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.65868925769592</v>
+        <v>7.400718377231722</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5887629580790271</v>
+        <v>0.5904548265936002</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8075640836534766</v>
+        <v>0.7897304890271345</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6947375921999508</v>
+        <v>0.6501913970768338</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8399453235371246</v>
+        <v>0.7834976452671987</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.526856113688613</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6.591278545520645</v>
+        <v>6.591278545520647</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4413666227813565</v>
@@ -849,7 +849,7 @@
         <v>0.4483326504188174</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.7342644297432167</v>
+        <v>0.734264429743217</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.484662880826391</v>
+        <v>2.27846582307493</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.631184855957677</v>
+        <v>7.247779442661974</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.897102525469664</v>
+        <v>0.4185637733118615</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.730639991386497</v>
+        <v>4.008955147823694</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1657919412524088</v>
+        <v>0.1653843371891303</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5462017172275666</v>
+        <v>0.5384785768736189</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07731660512434962</v>
+        <v>0.03611902492363898</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.3668754479286073</v>
+        <v>0.3768806994115121</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.757578484567748</v>
+        <v>8.879982953510535</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.99158239957873</v>
+        <v>14.76768904850285</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.08563325619595</v>
+        <v>6.867627437970694</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.130529371040492</v>
+        <v>9.407177750473002</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7634347555656432</v>
+        <v>0.7741223485414422</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.443632157501201</v>
+        <v>1.413594727275206</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.04930848620632</v>
+        <v>1.057125398523328</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.21296142397364</v>
+        <v>1.264418430442978</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.448644115510706</v>
+        <v>-1.657152835124322</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.604447317592901</v>
+        <v>3.770844293301343</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.760163923249142</v>
+        <v>6.578317923274647</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.310001411819655</v>
+        <v>2.079135197009085</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.07695951251710255</v>
+        <v>-0.08511134241538849</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2198460195885542</v>
+        <v>0.2315493074361747</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7615915203186154</v>
+        <v>0.7014614711916027</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1178308723089669</v>
+        <v>0.1029761536067153</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>10.03461117968126</v>
+        <v>9.844008123473467</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>13.73660031921879</v>
+        <v>13.95362395911611</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15.20109484894507</v>
+        <v>15.11802644016168</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.02515889196869</v>
+        <v>9.304980554179901</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7064054464378628</v>
+        <v>0.6885568305673004</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.210191958250484</v>
+        <v>1.283420559284404</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>3.089452151637011</v>
+        <v>2.99185338649355</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5451092075593001</v>
+        <v>0.5744230542185762</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.356960765496532</v>
+        <v>3.423371063644379</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.329918116407974</v>
+        <v>8.307004430799763</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.103227120455203</v>
+        <v>3.253567818870203</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.4983430698871</v>
+        <v>4.649393344845153</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1904562000331887</v>
+        <v>0.182726053978058</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.495185460401203</v>
+        <v>0.4988328053421541</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2402852355233714</v>
+        <v>0.255607150024838</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3123860636699696</v>
+        <v>0.3206399346927052</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.249608857207056</v>
+        <v>7.301535242615964</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.27835744386625</v>
+        <v>12.36194959434856</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.491476322001399</v>
+        <v>6.574430740509293</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.938347287705909</v>
+        <v>7.80093658613801</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4593961016798857</v>
+        <v>0.4530515840476685</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8258620786047625</v>
+        <v>0.846514124842214</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5958169775483919</v>
+        <v>0.5963705125350325</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.638594287502405</v>
+        <v>0.6235413607493278</v>
       </c>
     </row>
     <row r="19">
